--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/con_isolation/log_pcsmote_x_muestra_glass_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/con_isolation/log_pcsmote_x_muestra_glass_D25_R25_Pentropia.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.032933</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042064</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042064</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042064</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042064</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042064</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.307261</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.313995</t>
+          <t>2025-11-05T14:13:22.042587</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.338927</t>
+          <t>2025-11-05T14:13:22.221975</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.338927</t>
+          <t>2025-11-05T14:13:22.222887</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.338927</t>
+          <t>2025-11-05T14:13:22.223887</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.338927</t>
+          <t>2025-11-05T14:13:22.223887</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.338927</t>
+          <t>2025-11-05T14:13:22.223887</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345450</t>
+          <t>2025-11-05T14:13:22.224900</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.224900</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.224900</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.224900</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.225976</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.225976</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.226505</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.345529</t>
+          <t>2025-11-05T14:13:22.226505</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.491398</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.491398</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.491398</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.491398</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.492394</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.492394</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.492394</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.492394</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.370291</t>
+          <t>2025-11-05T14:13:22.492394</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.399118</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.399118</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.399118</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.733741</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.400117</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -8999,7 +8999,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.734742</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.735741</t>
         </is>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-05T11:16:22.401253</t>
+          <t>2025-11-05T14:13:22.735741</t>
         </is>
       </c>
     </row>
